--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\cocare\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\CoCareTestAutomation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BA4965-8676-4455-97F9-B15070942822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8FF359-6EBE-4116-A531-A2B87FE327C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8170" xr2:uid="{D48CD984-6211-407B-BF54-5877E2F3739C}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="8170" xr2:uid="{D48CD984-6211-407B-BF54-5877E2F3739C}"/>
   </bookViews>
   <sheets>
     <sheet name="InputData" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>pScriptName</t>
   </si>
   <si>
     <t>LoginWithValidCredentials</t>
-  </si>
-  <si>
-    <t>Testcase2</t>
   </si>
   <si>
     <t>Testcase3</t>
@@ -60,12 +57,6 @@
     <t>Testcase7</t>
   </si>
   <si>
-    <t>pPassword</t>
-  </si>
-  <si>
-    <t>pUsername</t>
-  </si>
-  <si>
     <t>cocareproject2024@gmail.com</t>
   </si>
   <si>
@@ -73,9 +64,6 @@
   </si>
   <si>
     <t>ValidateAuthenticationInvalidCredential</t>
-  </si>
-  <si>
-    <t>Tester1</t>
   </si>
   <si>
     <t>Tester2</t>
@@ -92,6 +80,51 @@
   <si>
     <t>Tester6</t>
   </si>
+  <si>
+    <t>puseremail</t>
+  </si>
+  <si>
+    <t>ppassword</t>
+  </si>
+  <si>
+    <t>pStudyID</t>
+  </si>
+  <si>
+    <t>pEnrollmentDate</t>
+  </si>
+  <si>
+    <t>pPrimaryCarePhysician</t>
+  </si>
+  <si>
+    <t>pLocation</t>
+  </si>
+  <si>
+    <t>pEncounterStatus</t>
+  </si>
+  <si>
+    <t>CreateNewEncounter</t>
+  </si>
+  <si>
+    <t>cocareproject2024+ncmtest1@gmail.com</t>
+  </si>
+  <si>
+    <t>08/08/2024</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Stevenson Family Health Center-Bronx-NY</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>EncounterType</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +136,7 @@
     <numFmt numFmtId="165" formatCode="\ \ \ @"/>
     <numFmt numFmtId="166" formatCode="\ \ \ \ \ \ @"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +524,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="57">
     <fill>
@@ -794,7 +833,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1018,6 +1057,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5854">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6892,13 +6940,20 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="56" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="5853"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="57" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5854">
     <cellStyle name="20% - Accent1" xfId="14" builtinId="30" customBuiltin="1"/>
@@ -13066,10 +13121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69904A16-BBAB-48A8-A4C3-C9CA1CCECF6C}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13079,86 +13134,128 @@
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1234</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="56" type="noConversion"/>
